--- a/Rapport/Projektplan.xlsx
+++ b/Rapport/Projektplan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>Uge 1</t>
   </si>
@@ -221,9 +221,6 @@
   </si>
   <si>
     <t>Skriv stories</t>
-  </si>
-  <si>
-    <t>Netværksdag på KMD - Ronnie</t>
   </si>
   <si>
     <t>Oprettelse af firmahjemmeside</t>
@@ -273,7 +270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,12 +325,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -380,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -425,16 +416,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,7 +454,7 @@
     <xdr:to>
       <xdr:col>97</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>140804</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -793,11 +783,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HW54"/>
+  <dimension ref="A1:HW53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="EP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="GL11" sqref="GL11"/>
+      <pane xSplit="2" topLeftCell="CO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +997,7 @@
       <c r="FY1" s="27"/>
       <c r="FZ1" s="27"/>
       <c r="GA1" s="27"/>
-      <c r="GB1" s="28">
+      <c r="GB1" s="26">
         <v>39264</v>
       </c>
       <c r="GC1" s="27"/>
@@ -1041,301 +1031,301 @@
       <c r="HE1" s="27"/>
     </row>
     <row r="2" spans="1:231" x14ac:dyDescent="0.25">
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26" t="s">
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26" t="s">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26" t="s">
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26" t="s">
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="26" t="s">
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="26"/>
-      <c r="AT2" s="26"/>
-      <c r="AU2" s="26"/>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="26" t="s">
+      <c r="AR2" s="28"/>
+      <c r="AS2" s="28"/>
+      <c r="AT2" s="28"/>
+      <c r="AU2" s="28"/>
+      <c r="AV2" s="28"/>
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AY2" s="26"/>
-      <c r="AZ2" s="26"/>
-      <c r="BA2" s="26"/>
-      <c r="BB2" s="26"/>
-      <c r="BC2" s="26"/>
-      <c r="BD2" s="26"/>
-      <c r="BE2" s="26" t="s">
+      <c r="AY2" s="28"/>
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="28"/>
+      <c r="BD2" s="28"/>
+      <c r="BE2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="BF2" s="26"/>
-      <c r="BG2" s="26"/>
-      <c r="BH2" s="26"/>
-      <c r="BI2" s="26"/>
-      <c r="BJ2" s="26"/>
-      <c r="BK2" s="26"/>
-      <c r="BL2" s="26" t="s">
+      <c r="BF2" s="28"/>
+      <c r="BG2" s="28"/>
+      <c r="BH2" s="28"/>
+      <c r="BI2" s="28"/>
+      <c r="BJ2" s="28"/>
+      <c r="BK2" s="28"/>
+      <c r="BL2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="BM2" s="26"/>
-      <c r="BN2" s="26"/>
-      <c r="BO2" s="26"/>
-      <c r="BP2" s="26"/>
-      <c r="BQ2" s="26"/>
-      <c r="BR2" s="26"/>
-      <c r="BS2" s="26" t="s">
+      <c r="BM2" s="28"/>
+      <c r="BN2" s="28"/>
+      <c r="BO2" s="28"/>
+      <c r="BP2" s="28"/>
+      <c r="BQ2" s="28"/>
+      <c r="BR2" s="28"/>
+      <c r="BS2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="BT2" s="26"/>
-      <c r="BU2" s="26"/>
-      <c r="BV2" s="26"/>
-      <c r="BW2" s="26"/>
-      <c r="BX2" s="26"/>
-      <c r="BY2" s="26"/>
-      <c r="BZ2" s="26" t="s">
+      <c r="BT2" s="28"/>
+      <c r="BU2" s="28"/>
+      <c r="BV2" s="28"/>
+      <c r="BW2" s="28"/>
+      <c r="BX2" s="28"/>
+      <c r="BY2" s="28"/>
+      <c r="BZ2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="CA2" s="26"/>
-      <c r="CB2" s="26"/>
-      <c r="CC2" s="26"/>
-      <c r="CD2" s="26"/>
-      <c r="CE2" s="26"/>
-      <c r="CF2" s="26"/>
-      <c r="CG2" s="26" t="s">
+      <c r="CA2" s="28"/>
+      <c r="CB2" s="28"/>
+      <c r="CC2" s="28"/>
+      <c r="CD2" s="28"/>
+      <c r="CE2" s="28"/>
+      <c r="CF2" s="28"/>
+      <c r="CG2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="CH2" s="26"/>
-      <c r="CI2" s="26"/>
-      <c r="CJ2" s="26"/>
-      <c r="CK2" s="26"/>
-      <c r="CL2" s="26"/>
-      <c r="CM2" s="26"/>
-      <c r="CN2" s="26" t="s">
+      <c r="CH2" s="28"/>
+      <c r="CI2" s="28"/>
+      <c r="CJ2" s="28"/>
+      <c r="CK2" s="28"/>
+      <c r="CL2" s="28"/>
+      <c r="CM2" s="28"/>
+      <c r="CN2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="CO2" s="26"/>
-      <c r="CP2" s="26"/>
-      <c r="CQ2" s="26"/>
-      <c r="CR2" s="26"/>
-      <c r="CS2" s="26"/>
-      <c r="CT2" s="26"/>
-      <c r="CU2" s="26" t="s">
+      <c r="CO2" s="28"/>
+      <c r="CP2" s="28"/>
+      <c r="CQ2" s="28"/>
+      <c r="CR2" s="28"/>
+      <c r="CS2" s="28"/>
+      <c r="CT2" s="28"/>
+      <c r="CU2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="CV2" s="26"/>
-      <c r="CW2" s="26"/>
-      <c r="CX2" s="26"/>
-      <c r="CY2" s="26"/>
-      <c r="CZ2" s="26"/>
-      <c r="DA2" s="26"/>
-      <c r="DB2" s="26" t="s">
+      <c r="CV2" s="28"/>
+      <c r="CW2" s="28"/>
+      <c r="CX2" s="28"/>
+      <c r="CY2" s="28"/>
+      <c r="CZ2" s="28"/>
+      <c r="DA2" s="28"/>
+      <c r="DB2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="DC2" s="26"/>
-      <c r="DD2" s="26"/>
-      <c r="DE2" s="26"/>
-      <c r="DF2" s="26"/>
-      <c r="DG2" s="26"/>
-      <c r="DH2" s="26"/>
-      <c r="DI2" s="26" t="s">
+      <c r="DC2" s="28"/>
+      <c r="DD2" s="28"/>
+      <c r="DE2" s="28"/>
+      <c r="DF2" s="28"/>
+      <c r="DG2" s="28"/>
+      <c r="DH2" s="28"/>
+      <c r="DI2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="DJ2" s="26"/>
-      <c r="DK2" s="26"/>
-      <c r="DL2" s="26"/>
-      <c r="DM2" s="26"/>
-      <c r="DN2" s="26"/>
-      <c r="DO2" s="26"/>
-      <c r="DP2" s="26" t="s">
+      <c r="DJ2" s="28"/>
+      <c r="DK2" s="28"/>
+      <c r="DL2" s="28"/>
+      <c r="DM2" s="28"/>
+      <c r="DN2" s="28"/>
+      <c r="DO2" s="28"/>
+      <c r="DP2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="DQ2" s="26"/>
-      <c r="DR2" s="26"/>
-      <c r="DS2" s="26"/>
-      <c r="DT2" s="26"/>
-      <c r="DU2" s="26"/>
-      <c r="DV2" s="26"/>
-      <c r="DW2" s="26" t="s">
+      <c r="DQ2" s="28"/>
+      <c r="DR2" s="28"/>
+      <c r="DS2" s="28"/>
+      <c r="DT2" s="28"/>
+      <c r="DU2" s="28"/>
+      <c r="DV2" s="28"/>
+      <c r="DW2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="DX2" s="26"/>
-      <c r="DY2" s="26"/>
-      <c r="DZ2" s="26"/>
-      <c r="EA2" s="26"/>
-      <c r="EB2" s="26"/>
-      <c r="EC2" s="26"/>
-      <c r="ED2" s="26" t="s">
+      <c r="DX2" s="28"/>
+      <c r="DY2" s="28"/>
+      <c r="DZ2" s="28"/>
+      <c r="EA2" s="28"/>
+      <c r="EB2" s="28"/>
+      <c r="EC2" s="28"/>
+      <c r="ED2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="EE2" s="26"/>
-      <c r="EF2" s="26"/>
-      <c r="EG2" s="26"/>
-      <c r="EH2" s="26"/>
-      <c r="EI2" s="26"/>
-      <c r="EJ2" s="26"/>
-      <c r="EK2" s="26" t="s">
+      <c r="EE2" s="28"/>
+      <c r="EF2" s="28"/>
+      <c r="EG2" s="28"/>
+      <c r="EH2" s="28"/>
+      <c r="EI2" s="28"/>
+      <c r="EJ2" s="28"/>
+      <c r="EK2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="EL2" s="26"/>
-      <c r="EM2" s="26"/>
-      <c r="EN2" s="26"/>
-      <c r="EO2" s="26"/>
-      <c r="EP2" s="26"/>
-      <c r="EQ2" s="26"/>
-      <c r="ER2" s="26" t="s">
+      <c r="EL2" s="28"/>
+      <c r="EM2" s="28"/>
+      <c r="EN2" s="28"/>
+      <c r="EO2" s="28"/>
+      <c r="EP2" s="28"/>
+      <c r="EQ2" s="28"/>
+      <c r="ER2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="ES2" s="26"/>
-      <c r="ET2" s="26"/>
-      <c r="EU2" s="26"/>
-      <c r="EV2" s="26"/>
-      <c r="EW2" s="26"/>
-      <c r="EX2" s="26"/>
-      <c r="EY2" s="26" t="s">
+      <c r="ES2" s="28"/>
+      <c r="ET2" s="28"/>
+      <c r="EU2" s="28"/>
+      <c r="EV2" s="28"/>
+      <c r="EW2" s="28"/>
+      <c r="EX2" s="28"/>
+      <c r="EY2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="EZ2" s="26"/>
-      <c r="FA2" s="26"/>
-      <c r="FB2" s="26"/>
-      <c r="FC2" s="26"/>
-      <c r="FD2" s="26"/>
-      <c r="FE2" s="26"/>
-      <c r="FF2" s="26" t="s">
+      <c r="EZ2" s="28"/>
+      <c r="FA2" s="28"/>
+      <c r="FB2" s="28"/>
+      <c r="FC2" s="28"/>
+      <c r="FD2" s="28"/>
+      <c r="FE2" s="28"/>
+      <c r="FF2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="FG2" s="26"/>
-      <c r="FH2" s="26"/>
-      <c r="FI2" s="26"/>
-      <c r="FJ2" s="26"/>
-      <c r="FK2" s="26"/>
-      <c r="FL2" s="26"/>
-      <c r="FM2" s="26" t="s">
+      <c r="FG2" s="28"/>
+      <c r="FH2" s="28"/>
+      <c r="FI2" s="28"/>
+      <c r="FJ2" s="28"/>
+      <c r="FK2" s="28"/>
+      <c r="FL2" s="28"/>
+      <c r="FM2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="FN2" s="26"/>
-      <c r="FO2" s="26"/>
-      <c r="FP2" s="26"/>
-      <c r="FQ2" s="26"/>
-      <c r="FR2" s="26"/>
-      <c r="FS2" s="26"/>
-      <c r="FT2" s="26" t="s">
+      <c r="FN2" s="28"/>
+      <c r="FO2" s="28"/>
+      <c r="FP2" s="28"/>
+      <c r="FQ2" s="28"/>
+      <c r="FR2" s="28"/>
+      <c r="FS2" s="28"/>
+      <c r="FT2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="FU2" s="26"/>
-      <c r="FV2" s="26"/>
-      <c r="FW2" s="26"/>
-      <c r="FX2" s="26"/>
-      <c r="FY2" s="26"/>
-      <c r="FZ2" s="26"/>
-      <c r="GA2" s="26" t="s">
+      <c r="FU2" s="28"/>
+      <c r="FV2" s="28"/>
+      <c r="FW2" s="28"/>
+      <c r="FX2" s="28"/>
+      <c r="FY2" s="28"/>
+      <c r="FZ2" s="28"/>
+      <c r="GA2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="GB2" s="26"/>
-      <c r="GC2" s="26"/>
-      <c r="GD2" s="26"/>
-      <c r="GE2" s="26"/>
-      <c r="GF2" s="26"/>
-      <c r="GG2" s="26"/>
-      <c r="GH2" s="26" t="s">
+      <c r="GB2" s="28"/>
+      <c r="GC2" s="28"/>
+      <c r="GD2" s="28"/>
+      <c r="GE2" s="28"/>
+      <c r="GF2" s="28"/>
+      <c r="GG2" s="28"/>
+      <c r="GH2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="GI2" s="26"/>
-      <c r="GJ2" s="26"/>
-      <c r="GK2" s="26"/>
-      <c r="GL2" s="26"/>
-      <c r="GM2" s="26"/>
-      <c r="GN2" s="26"/>
-      <c r="GO2" s="26" t="s">
+      <c r="GI2" s="28"/>
+      <c r="GJ2" s="28"/>
+      <c r="GK2" s="28"/>
+      <c r="GL2" s="28"/>
+      <c r="GM2" s="28"/>
+      <c r="GN2" s="28"/>
+      <c r="GO2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="GP2" s="26"/>
-      <c r="GQ2" s="26"/>
-      <c r="GR2" s="26"/>
-      <c r="GS2" s="26"/>
-      <c r="GT2" s="26"/>
-      <c r="GU2" s="26"/>
-      <c r="GV2" s="26" t="s">
+      <c r="GP2" s="28"/>
+      <c r="GQ2" s="28"/>
+      <c r="GR2" s="28"/>
+      <c r="GS2" s="28"/>
+      <c r="GT2" s="28"/>
+      <c r="GU2" s="28"/>
+      <c r="GV2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="GW2" s="26"/>
-      <c r="GX2" s="26"/>
-      <c r="GY2" s="26"/>
-      <c r="GZ2" s="26"/>
-      <c r="HA2" s="26"/>
-      <c r="HB2" s="26"/>
-      <c r="HC2" s="26" t="s">
+      <c r="GW2" s="28"/>
+      <c r="GX2" s="28"/>
+      <c r="GY2" s="28"/>
+      <c r="GZ2" s="28"/>
+      <c r="HA2" s="28"/>
+      <c r="HB2" s="28"/>
+      <c r="HC2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="HD2" s="26"/>
-      <c r="HE2" s="26"/>
-      <c r="HF2" s="26"/>
-      <c r="HG2" s="26"/>
-      <c r="HH2" s="26"/>
-      <c r="HI2" s="26"/>
-      <c r="HJ2" s="26" t="s">
+      <c r="HD2" s="28"/>
+      <c r="HE2" s="28"/>
+      <c r="HF2" s="28"/>
+      <c r="HG2" s="28"/>
+      <c r="HH2" s="28"/>
+      <c r="HI2" s="28"/>
+      <c r="HJ2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="HK2" s="26"/>
-      <c r="HL2" s="26"/>
-      <c r="HM2" s="26"/>
-      <c r="HN2" s="26"/>
-      <c r="HO2" s="26"/>
-      <c r="HP2" s="26"/>
-      <c r="HQ2" s="26" t="s">
+      <c r="HK2" s="28"/>
+      <c r="HL2" s="28"/>
+      <c r="HM2" s="28"/>
+      <c r="HN2" s="28"/>
+      <c r="HO2" s="28"/>
+      <c r="HP2" s="28"/>
+      <c r="HQ2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="HR2" s="26"/>
-      <c r="HS2" s="26"/>
-      <c r="HT2" s="26"/>
-      <c r="HU2" s="26"/>
-      <c r="HV2" s="26"/>
-      <c r="HW2" s="26"/>
+      <c r="HR2" s="28"/>
+      <c r="HS2" s="28"/>
+      <c r="HT2" s="28"/>
+      <c r="HU2" s="28"/>
+      <c r="HV2" s="28"/>
+      <c r="HW2" s="28"/>
     </row>
     <row r="3" spans="1:231" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
@@ -2342,7 +2332,7 @@
     </row>
     <row r="10" spans="1:231" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="EY10" s="18"/>
       <c r="EZ10" s="18"/>
@@ -2358,7 +2348,7 @@
     </row>
     <row r="11" spans="1:231" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="FM11" s="18"/>
       <c r="FN11" s="18"/>
@@ -2560,19 +2550,22 @@
     </row>
     <row r="18" spans="1:128" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="DM18" s="29"/>
+        <v>68</v>
+      </c>
+      <c r="DL18" s="18"/>
     </row>
     <row r="19" spans="1:128" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="DL19" s="18"/>
+        <v>46</v>
+      </c>
+      <c r="DF19" s="18"/>
+      <c r="DI19" s="18"/>
+      <c r="DJ19" s="18"/>
+      <c r="DK19" s="18"/>
     </row>
     <row r="20" spans="1:128" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="DF20" s="18"/>
       <c r="DI20" s="18"/>
@@ -2581,29 +2574,33 @@
     </row>
     <row r="21" spans="1:128" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="DF21" s="18"/>
       <c r="DI21" s="18"/>
-      <c r="DJ21" s="18"/>
-      <c r="DK21" s="18"/>
     </row>
     <row r="22" spans="1:128" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="DF22" s="18"/>
-      <c r="DI22" s="18"/>
+        <v>67</v>
+      </c>
+      <c r="DJ22" s="24"/>
     </row>
     <row r="23" spans="1:128" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="DJ23" s="24"/>
+        <v>53</v>
+      </c>
+      <c r="CX23" s="18"/>
+      <c r="DB23" s="18"/>
+      <c r="DC23" s="18"/>
+      <c r="DD23" s="18"/>
+      <c r="DE23" s="18"/>
     </row>
     <row r="24" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
       <c r="B24" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="CX24" s="18"/>
       <c r="DB24" s="18"/>
@@ -2612,156 +2609,153 @@
       <c r="DE24" s="18"/>
     </row>
     <row r="25" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>23</v>
-      </c>
       <c r="B25" s="14" t="s">
-        <v>54</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="CW25" s="18"/>
       <c r="CX25" s="18"/>
-      <c r="DB25" s="18"/>
-      <c r="DC25" s="18"/>
-      <c r="DD25" s="18"/>
-      <c r="DE25" s="18"/>
     </row>
     <row r="26" spans="1:128" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="CW26" s="18"/>
-      <c r="CX26" s="18"/>
     </row>
     <row r="27" spans="1:128" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="CW27" s="18"/>
-    </row>
-    <row r="28" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="B28" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="CO28" s="19"/>
+      <c r="CO27" s="19"/>
+    </row>
+    <row r="29" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>21</v>
+      </c>
     </row>
     <row r="30" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B38" s="17"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>8</v>
-      </c>
-      <c r="B39" s="17"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>3</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B44"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B45"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B46"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>4</v>
-      </c>
-      <c r="B47"/>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2</v>
+      </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="FM4:FX4"/>
-    <mergeCell ref="GA4:GL4"/>
-    <mergeCell ref="GO4:GZ4"/>
-    <mergeCell ref="GB1:HE1"/>
-    <mergeCell ref="EX1:GA1"/>
-    <mergeCell ref="FF2:FL2"/>
-    <mergeCell ref="EY2:FE2"/>
-    <mergeCell ref="HC2:HI2"/>
-    <mergeCell ref="C1:AG1"/>
-    <mergeCell ref="AH1:BI1"/>
-    <mergeCell ref="BJ1:CN1"/>
-    <mergeCell ref="CO1:DR1"/>
-    <mergeCell ref="DS1:EW1"/>
+    <mergeCell ref="DB4:DM4"/>
+    <mergeCell ref="DP4:EA4"/>
+    <mergeCell ref="ED4:EO4"/>
+    <mergeCell ref="ER4:FC4"/>
+    <mergeCell ref="FF4:FL4"/>
+    <mergeCell ref="HJ2:HP2"/>
+    <mergeCell ref="HQ2:HW2"/>
+    <mergeCell ref="FM2:FS2"/>
+    <mergeCell ref="FT2:FZ2"/>
+    <mergeCell ref="GA2:GG2"/>
+    <mergeCell ref="GH2:GN2"/>
+    <mergeCell ref="GO2:GU2"/>
+    <mergeCell ref="GV2:HB2"/>
+    <mergeCell ref="DP2:DV2"/>
+    <mergeCell ref="DW2:EC2"/>
+    <mergeCell ref="ED2:EJ2"/>
+    <mergeCell ref="EK2:EQ2"/>
+    <mergeCell ref="ER2:EX2"/>
+    <mergeCell ref="CG2:CM2"/>
+    <mergeCell ref="CN2:CT2"/>
+    <mergeCell ref="CU2:DA2"/>
+    <mergeCell ref="DB2:DH2"/>
+    <mergeCell ref="DI2:DO2"/>
     <mergeCell ref="BZ2:CF2"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:N2"/>
@@ -2774,29 +2768,19 @@
     <mergeCell ref="BE2:BK2"/>
     <mergeCell ref="BL2:BR2"/>
     <mergeCell ref="BS2:BY2"/>
-    <mergeCell ref="CG2:CM2"/>
-    <mergeCell ref="CN2:CT2"/>
-    <mergeCell ref="CU2:DA2"/>
-    <mergeCell ref="DB2:DH2"/>
-    <mergeCell ref="DI2:DO2"/>
-    <mergeCell ref="DP2:DV2"/>
-    <mergeCell ref="DW2:EC2"/>
-    <mergeCell ref="ED2:EJ2"/>
-    <mergeCell ref="EK2:EQ2"/>
-    <mergeCell ref="ER2:EX2"/>
-    <mergeCell ref="HJ2:HP2"/>
-    <mergeCell ref="HQ2:HW2"/>
-    <mergeCell ref="FM2:FS2"/>
-    <mergeCell ref="FT2:FZ2"/>
-    <mergeCell ref="GA2:GG2"/>
-    <mergeCell ref="GH2:GN2"/>
-    <mergeCell ref="GO2:GU2"/>
-    <mergeCell ref="GV2:HB2"/>
-    <mergeCell ref="DB4:DM4"/>
-    <mergeCell ref="DP4:EA4"/>
-    <mergeCell ref="ED4:EO4"/>
-    <mergeCell ref="ER4:FC4"/>
-    <mergeCell ref="FF4:FL4"/>
+    <mergeCell ref="C1:AG1"/>
+    <mergeCell ref="AH1:BI1"/>
+    <mergeCell ref="BJ1:CN1"/>
+    <mergeCell ref="CO1:DR1"/>
+    <mergeCell ref="DS1:EW1"/>
+    <mergeCell ref="FM4:FX4"/>
+    <mergeCell ref="GA4:GL4"/>
+    <mergeCell ref="GO4:GZ4"/>
+    <mergeCell ref="GB1:HE1"/>
+    <mergeCell ref="EX1:GA1"/>
+    <mergeCell ref="FF2:FL2"/>
+    <mergeCell ref="EY2:FE2"/>
+    <mergeCell ref="HC2:HI2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Rapport/Projektplan.xlsx
+++ b/Rapport/Projektplan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="78">
   <si>
     <t>Uge 1</t>
   </si>
@@ -109,12 +109,6 @@
     <t>Uge 31</t>
   </si>
   <si>
-    <t>Uge 32</t>
-  </si>
-  <si>
-    <t>Uge 33</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Jan 1 </t>
   </si>
   <si>
@@ -184,24 +178,12 @@
     <t>Projektafslutning</t>
   </si>
   <si>
-    <t>Stories sprint 3 - TBD</t>
-  </si>
-  <si>
-    <t>Stories sprint 2 - TBD</t>
-  </si>
-  <si>
-    <t>Stories sprint 1 - TBD</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
     <t>Projekt Aflevering</t>
   </si>
   <si>
-    <t>Release</t>
-  </si>
-  <si>
     <t>Asse</t>
   </si>
   <si>
@@ -217,9 +199,6 @@
     <t>Sprint 6</t>
   </si>
   <si>
-    <t>Vejledermøde kl. 12 - Receptionen</t>
-  </si>
-  <si>
     <t>Skriv stories</t>
   </si>
   <si>
@@ -227,6 +206,48 @@
   </si>
   <si>
     <t>Udvikling af pressemateriale, logo etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stories sprint 1 </t>
+  </si>
+  <si>
+    <t>Stories sprint 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stories sprint 3 </t>
+  </si>
+  <si>
+    <t>Stories sprint 4</t>
+  </si>
+  <si>
+    <t>Stories sprint 5</t>
+  </si>
+  <si>
+    <t>Stories sprint 6</t>
+  </si>
+  <si>
+    <t>Stories sprint 7</t>
+  </si>
+  <si>
+    <t>Stories sprint 8</t>
+  </si>
+  <si>
+    <t>Stories sprint 9</t>
+  </si>
+  <si>
+    <t>Stories sprint 10</t>
+  </si>
+  <si>
+    <t>Stories sprint 11</t>
+  </si>
+  <si>
+    <t>Stories sprint 12</t>
+  </si>
+  <si>
+    <t>Milestone - Prototype, showdown</t>
+  </si>
+  <si>
+    <t>Milestone - Projekt Aflevering, Prototype, Platform</t>
   </si>
 </sst>
 </file>
@@ -270,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,7 +342,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -412,19 +439,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +482,7 @@
     <xdr:to>
       <xdr:col>97</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>140804</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -783,11 +811,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HW53"/>
+  <dimension ref="A1:HI60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="CO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A18" sqref="A18:XFD18"/>
+      <selection pane="topRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,538 +824,521 @@
     <col min="2" max="2" width="44.140625" style="14" customWidth="1"/>
     <col min="3" max="92" width="2.42578125" hidden="1" customWidth="1"/>
     <col min="93" max="183" width="2.42578125" customWidth="1"/>
-    <col min="184" max="192" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="2.5703125" customWidth="1"/>
+    <col min="185" max="192" width="1.85546875" bestFit="1" customWidth="1"/>
     <col min="193" max="214" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="215" max="217" width="1.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:231" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:217" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="13"/>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
+      <c r="AW1" s="26"/>
+      <c r="AX1" s="26"/>
+      <c r="AY1" s="26"/>
+      <c r="AZ1" s="26"/>
+      <c r="BA1" s="26"/>
+      <c r="BB1" s="26"/>
+      <c r="BC1" s="26"/>
+      <c r="BD1" s="26"/>
+      <c r="BE1" s="26"/>
+      <c r="BF1" s="26"/>
+      <c r="BG1" s="26"/>
+      <c r="BH1" s="26"/>
+      <c r="BI1" s="26"/>
+      <c r="BJ1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27" t="s">
+      <c r="BK1" s="26"/>
+      <c r="BL1" s="26"/>
+      <c r="BM1" s="26"/>
+      <c r="BN1" s="26"/>
+      <c r="BO1" s="26"/>
+      <c r="BP1" s="26"/>
+      <c r="BQ1" s="26"/>
+      <c r="BR1" s="26"/>
+      <c r="BS1" s="26"/>
+      <c r="BT1" s="26"/>
+      <c r="BU1" s="26"/>
+      <c r="BV1" s="26"/>
+      <c r="BW1" s="26"/>
+      <c r="BX1" s="26"/>
+      <c r="BY1" s="26"/>
+      <c r="BZ1" s="26"/>
+      <c r="CA1" s="26"/>
+      <c r="CB1" s="26"/>
+      <c r="CC1" s="26"/>
+      <c r="CD1" s="26"/>
+      <c r="CE1" s="26"/>
+      <c r="CF1" s="26"/>
+      <c r="CG1" s="26"/>
+      <c r="CH1" s="26"/>
+      <c r="CI1" s="26"/>
+      <c r="CJ1" s="26"/>
+      <c r="CK1" s="26"/>
+      <c r="CL1" s="26"/>
+      <c r="CM1" s="26"/>
+      <c r="CN1" s="26"/>
+      <c r="CO1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="27"/>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="27"/>
-      <c r="BB1" s="27"/>
-      <c r="BC1" s="27"/>
-      <c r="BD1" s="27"/>
-      <c r="BE1" s="27"/>
-      <c r="BF1" s="27"/>
-      <c r="BG1" s="27"/>
-      <c r="BH1" s="27"/>
-      <c r="BI1" s="27"/>
-      <c r="BJ1" s="27" t="s">
+      <c r="CP1" s="26"/>
+      <c r="CQ1" s="26"/>
+      <c r="CR1" s="26"/>
+      <c r="CS1" s="26"/>
+      <c r="CT1" s="26"/>
+      <c r="CU1" s="26"/>
+      <c r="CV1" s="26"/>
+      <c r="CW1" s="26"/>
+      <c r="CX1" s="26"/>
+      <c r="CY1" s="26"/>
+      <c r="CZ1" s="26"/>
+      <c r="DA1" s="26"/>
+      <c r="DB1" s="26"/>
+      <c r="DC1" s="26"/>
+      <c r="DD1" s="26"/>
+      <c r="DE1" s="26"/>
+      <c r="DF1" s="26"/>
+      <c r="DG1" s="26"/>
+      <c r="DH1" s="26"/>
+      <c r="DI1" s="26"/>
+      <c r="DJ1" s="26"/>
+      <c r="DK1" s="26"/>
+      <c r="DL1" s="26"/>
+      <c r="DM1" s="26"/>
+      <c r="DN1" s="26"/>
+      <c r="DO1" s="26"/>
+      <c r="DP1" s="26"/>
+      <c r="DQ1" s="26"/>
+      <c r="DR1" s="26"/>
+      <c r="DS1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="BK1" s="27"/>
-      <c r="BL1" s="27"/>
-      <c r="BM1" s="27"/>
-      <c r="BN1" s="27"/>
-      <c r="BO1" s="27"/>
-      <c r="BP1" s="27"/>
-      <c r="BQ1" s="27"/>
-      <c r="BR1" s="27"/>
-      <c r="BS1" s="27"/>
-      <c r="BT1" s="27"/>
-      <c r="BU1" s="27"/>
-      <c r="BV1" s="27"/>
-      <c r="BW1" s="27"/>
-      <c r="BX1" s="27"/>
-      <c r="BY1" s="27"/>
-      <c r="BZ1" s="27"/>
-      <c r="CA1" s="27"/>
-      <c r="CB1" s="27"/>
-      <c r="CC1" s="27"/>
-      <c r="CD1" s="27"/>
-      <c r="CE1" s="27"/>
-      <c r="CF1" s="27"/>
-      <c r="CG1" s="27"/>
-      <c r="CH1" s="27"/>
-      <c r="CI1" s="27"/>
-      <c r="CJ1" s="27"/>
-      <c r="CK1" s="27"/>
-      <c r="CL1" s="27"/>
-      <c r="CM1" s="27"/>
-      <c r="CN1" s="27"/>
-      <c r="CO1" s="27" t="s">
+      <c r="DT1" s="26"/>
+      <c r="DU1" s="26"/>
+      <c r="DV1" s="26"/>
+      <c r="DW1" s="26"/>
+      <c r="DX1" s="26"/>
+      <c r="DY1" s="26"/>
+      <c r="DZ1" s="26"/>
+      <c r="EA1" s="26"/>
+      <c r="EB1" s="26"/>
+      <c r="EC1" s="26"/>
+      <c r="ED1" s="26"/>
+      <c r="EE1" s="26"/>
+      <c r="EF1" s="26"/>
+      <c r="EG1" s="26"/>
+      <c r="EH1" s="26"/>
+      <c r="EI1" s="26"/>
+      <c r="EJ1" s="26"/>
+      <c r="EK1" s="26"/>
+      <c r="EL1" s="26"/>
+      <c r="EM1" s="26"/>
+      <c r="EN1" s="26"/>
+      <c r="EO1" s="26"/>
+      <c r="EP1" s="26"/>
+      <c r="EQ1" s="26"/>
+      <c r="ER1" s="26"/>
+      <c r="ES1" s="26"/>
+      <c r="ET1" s="26"/>
+      <c r="EU1" s="26"/>
+      <c r="EV1" s="26"/>
+      <c r="EW1" s="26"/>
+      <c r="EX1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="CP1" s="27"/>
-      <c r="CQ1" s="27"/>
-      <c r="CR1" s="27"/>
-      <c r="CS1" s="27"/>
-      <c r="CT1" s="27"/>
-      <c r="CU1" s="27"/>
-      <c r="CV1" s="27"/>
-      <c r="CW1" s="27"/>
-      <c r="CX1" s="27"/>
-      <c r="CY1" s="27"/>
-      <c r="CZ1" s="27"/>
-      <c r="DA1" s="27"/>
-      <c r="DB1" s="27"/>
-      <c r="DC1" s="27"/>
-      <c r="DD1" s="27"/>
-      <c r="DE1" s="27"/>
-      <c r="DF1" s="27"/>
-      <c r="DG1" s="27"/>
-      <c r="DH1" s="27"/>
-      <c r="DI1" s="27"/>
-      <c r="DJ1" s="27"/>
-      <c r="DK1" s="27"/>
-      <c r="DL1" s="27"/>
-      <c r="DM1" s="27"/>
-      <c r="DN1" s="27"/>
-      <c r="DO1" s="27"/>
-      <c r="DP1" s="27"/>
-      <c r="DQ1" s="27"/>
-      <c r="DR1" s="27"/>
-      <c r="DS1" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="DT1" s="27"/>
-      <c r="DU1" s="27"/>
-      <c r="DV1" s="27"/>
-      <c r="DW1" s="27"/>
-      <c r="DX1" s="27"/>
-      <c r="DY1" s="27"/>
-      <c r="DZ1" s="27"/>
-      <c r="EA1" s="27"/>
-      <c r="EB1" s="27"/>
-      <c r="EC1" s="27"/>
-      <c r="ED1" s="27"/>
-      <c r="EE1" s="27"/>
-      <c r="EF1" s="27"/>
-      <c r="EG1" s="27"/>
-      <c r="EH1" s="27"/>
-      <c r="EI1" s="27"/>
-      <c r="EJ1" s="27"/>
-      <c r="EK1" s="27"/>
-      <c r="EL1" s="27"/>
-      <c r="EM1" s="27"/>
-      <c r="EN1" s="27"/>
-      <c r="EO1" s="27"/>
-      <c r="EP1" s="27"/>
-      <c r="EQ1" s="27"/>
-      <c r="ER1" s="27"/>
-      <c r="ES1" s="27"/>
-      <c r="ET1" s="27"/>
-      <c r="EU1" s="27"/>
-      <c r="EV1" s="27"/>
-      <c r="EW1" s="27"/>
-      <c r="EX1" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="EY1" s="27"/>
-      <c r="EZ1" s="27"/>
-      <c r="FA1" s="27"/>
-      <c r="FB1" s="27"/>
-      <c r="FC1" s="27"/>
-      <c r="FD1" s="27"/>
-      <c r="FE1" s="27"/>
-      <c r="FF1" s="27"/>
-      <c r="FG1" s="27"/>
-      <c r="FH1" s="27"/>
-      <c r="FI1" s="27"/>
-      <c r="FJ1" s="27"/>
-      <c r="FK1" s="27"/>
-      <c r="FL1" s="27"/>
-      <c r="FM1" s="27"/>
-      <c r="FN1" s="27"/>
-      <c r="FO1" s="27"/>
-      <c r="FP1" s="27"/>
-      <c r="FQ1" s="27"/>
-      <c r="FR1" s="27"/>
-      <c r="FS1" s="27"/>
-      <c r="FT1" s="27"/>
-      <c r="FU1" s="27"/>
-      <c r="FV1" s="27"/>
-      <c r="FW1" s="27"/>
-      <c r="FX1" s="27"/>
-      <c r="FY1" s="27"/>
-      <c r="FZ1" s="27"/>
-      <c r="GA1" s="27"/>
-      <c r="GB1" s="26">
+      <c r="EY1" s="26"/>
+      <c r="EZ1" s="26"/>
+      <c r="FA1" s="26"/>
+      <c r="FB1" s="26"/>
+      <c r="FC1" s="26"/>
+      <c r="FD1" s="26"/>
+      <c r="FE1" s="26"/>
+      <c r="FF1" s="26"/>
+      <c r="FG1" s="26"/>
+      <c r="FH1" s="26"/>
+      <c r="FI1" s="26"/>
+      <c r="FJ1" s="26"/>
+      <c r="FK1" s="26"/>
+      <c r="FL1" s="26"/>
+      <c r="FM1" s="26"/>
+      <c r="FN1" s="26"/>
+      <c r="FO1" s="26"/>
+      <c r="FP1" s="26"/>
+      <c r="FQ1" s="26"/>
+      <c r="FR1" s="26"/>
+      <c r="FS1" s="26"/>
+      <c r="FT1" s="26"/>
+      <c r="FU1" s="26"/>
+      <c r="FV1" s="26"/>
+      <c r="FW1" s="26"/>
+      <c r="FX1" s="26"/>
+      <c r="FY1" s="26"/>
+      <c r="FZ1" s="26"/>
+      <c r="GA1" s="26"/>
+      <c r="GB1" s="27">
         <v>39264</v>
       </c>
-      <c r="GC1" s="27"/>
-      <c r="GD1" s="27"/>
-      <c r="GE1" s="27"/>
-      <c r="GF1" s="27"/>
-      <c r="GG1" s="27"/>
-      <c r="GH1" s="27"/>
-      <c r="GI1" s="27"/>
-      <c r="GJ1" s="27"/>
-      <c r="GK1" s="27"/>
-      <c r="GL1" s="27"/>
-      <c r="GM1" s="27"/>
-      <c r="GN1" s="27"/>
-      <c r="GO1" s="27"/>
-      <c r="GP1" s="27"/>
-      <c r="GQ1" s="27"/>
-      <c r="GR1" s="27"/>
-      <c r="GS1" s="27"/>
-      <c r="GT1" s="27"/>
-      <c r="GU1" s="27"/>
-      <c r="GV1" s="27"/>
-      <c r="GW1" s="27"/>
-      <c r="GX1" s="27"/>
-      <c r="GY1" s="27"/>
-      <c r="GZ1" s="27"/>
-      <c r="HA1" s="27"/>
-      <c r="HB1" s="27"/>
-      <c r="HC1" s="27"/>
-      <c r="HD1" s="27"/>
-      <c r="HE1" s="27"/>
-    </row>
-    <row r="2" spans="1:231" x14ac:dyDescent="0.25">
-      <c r="C2" s="28" t="s">
+      <c r="GC1" s="26"/>
+      <c r="GD1" s="26"/>
+      <c r="GE1" s="26"/>
+      <c r="GF1" s="26"/>
+      <c r="GG1" s="26"/>
+      <c r="GH1" s="26"/>
+      <c r="GI1" s="26"/>
+      <c r="GJ1" s="26"/>
+      <c r="GK1" s="26"/>
+      <c r="GL1" s="26"/>
+      <c r="GM1" s="26"/>
+      <c r="GN1" s="26"/>
+      <c r="GO1" s="26"/>
+      <c r="GP1" s="26"/>
+      <c r="GQ1" s="26"/>
+      <c r="GR1" s="26"/>
+      <c r="GS1" s="26"/>
+      <c r="GT1" s="26"/>
+      <c r="GU1" s="26"/>
+      <c r="GV1" s="26"/>
+      <c r="GW1" s="26"/>
+      <c r="GX1" s="26"/>
+      <c r="GY1" s="26"/>
+      <c r="GZ1" s="26"/>
+      <c r="HA1" s="26"/>
+      <c r="HB1" s="26"/>
+      <c r="HC1" s="26"/>
+      <c r="HD1" s="26"/>
+      <c r="HE1" s="26"/>
+    </row>
+    <row r="2" spans="1:217" x14ac:dyDescent="0.25">
+      <c r="C2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28" t="s">
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28" t="s">
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28" t="s">
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="28" t="s">
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28" t="s">
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25"/>
+      <c r="AU2" s="25"/>
+      <c r="AV2" s="25"/>
+      <c r="AW2" s="25"/>
+      <c r="AX2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="28"/>
-      <c r="BC2" s="28"/>
-      <c r="BD2" s="28"/>
-      <c r="BE2" s="28" t="s">
+      <c r="AY2" s="25"/>
+      <c r="AZ2" s="25"/>
+      <c r="BA2" s="25"/>
+      <c r="BB2" s="25"/>
+      <c r="BC2" s="25"/>
+      <c r="BD2" s="25"/>
+      <c r="BE2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="BF2" s="28"/>
-      <c r="BG2" s="28"/>
-      <c r="BH2" s="28"/>
-      <c r="BI2" s="28"/>
-      <c r="BJ2" s="28"/>
-      <c r="BK2" s="28"/>
-      <c r="BL2" s="28" t="s">
+      <c r="BF2" s="25"/>
+      <c r="BG2" s="25"/>
+      <c r="BH2" s="25"/>
+      <c r="BI2" s="25"/>
+      <c r="BJ2" s="25"/>
+      <c r="BK2" s="25"/>
+      <c r="BL2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="BM2" s="28"/>
-      <c r="BN2" s="28"/>
-      <c r="BO2" s="28"/>
-      <c r="BP2" s="28"/>
-      <c r="BQ2" s="28"/>
-      <c r="BR2" s="28"/>
-      <c r="BS2" s="28" t="s">
+      <c r="BM2" s="25"/>
+      <c r="BN2" s="25"/>
+      <c r="BO2" s="25"/>
+      <c r="BP2" s="25"/>
+      <c r="BQ2" s="25"/>
+      <c r="BR2" s="25"/>
+      <c r="BS2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="BT2" s="28"/>
-      <c r="BU2" s="28"/>
-      <c r="BV2" s="28"/>
-      <c r="BW2" s="28"/>
-      <c r="BX2" s="28"/>
-      <c r="BY2" s="28"/>
-      <c r="BZ2" s="28" t="s">
+      <c r="BT2" s="25"/>
+      <c r="BU2" s="25"/>
+      <c r="BV2" s="25"/>
+      <c r="BW2" s="25"/>
+      <c r="BX2" s="25"/>
+      <c r="BY2" s="25"/>
+      <c r="BZ2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="CA2" s="28"/>
-      <c r="CB2" s="28"/>
-      <c r="CC2" s="28"/>
-      <c r="CD2" s="28"/>
-      <c r="CE2" s="28"/>
-      <c r="CF2" s="28"/>
-      <c r="CG2" s="28" t="s">
+      <c r="CA2" s="25"/>
+      <c r="CB2" s="25"/>
+      <c r="CC2" s="25"/>
+      <c r="CD2" s="25"/>
+      <c r="CE2" s="25"/>
+      <c r="CF2" s="25"/>
+      <c r="CG2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="CH2" s="28"/>
-      <c r="CI2" s="28"/>
-      <c r="CJ2" s="28"/>
-      <c r="CK2" s="28"/>
-      <c r="CL2" s="28"/>
-      <c r="CM2" s="28"/>
-      <c r="CN2" s="28" t="s">
+      <c r="CH2" s="25"/>
+      <c r="CI2" s="25"/>
+      <c r="CJ2" s="25"/>
+      <c r="CK2" s="25"/>
+      <c r="CL2" s="25"/>
+      <c r="CM2" s="25"/>
+      <c r="CN2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="CO2" s="28"/>
-      <c r="CP2" s="28"/>
-      <c r="CQ2" s="28"/>
-      <c r="CR2" s="28"/>
-      <c r="CS2" s="28"/>
-      <c r="CT2" s="28"/>
-      <c r="CU2" s="28" t="s">
+      <c r="CO2" s="25"/>
+      <c r="CP2" s="25"/>
+      <c r="CQ2" s="25"/>
+      <c r="CR2" s="25"/>
+      <c r="CS2" s="25"/>
+      <c r="CT2" s="25"/>
+      <c r="CU2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="CV2" s="28"/>
-      <c r="CW2" s="28"/>
-      <c r="CX2" s="28"/>
-      <c r="CY2" s="28"/>
-      <c r="CZ2" s="28"/>
-      <c r="DA2" s="28"/>
-      <c r="DB2" s="28" t="s">
+      <c r="CV2" s="25"/>
+      <c r="CW2" s="25"/>
+      <c r="CX2" s="25"/>
+      <c r="CY2" s="25"/>
+      <c r="CZ2" s="25"/>
+      <c r="DA2" s="25"/>
+      <c r="DB2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="DC2" s="28"/>
-      <c r="DD2" s="28"/>
-      <c r="DE2" s="28"/>
-      <c r="DF2" s="28"/>
-      <c r="DG2" s="28"/>
-      <c r="DH2" s="28"/>
-      <c r="DI2" s="28" t="s">
+      <c r="DC2" s="25"/>
+      <c r="DD2" s="25"/>
+      <c r="DE2" s="25"/>
+      <c r="DF2" s="25"/>
+      <c r="DG2" s="25"/>
+      <c r="DH2" s="25"/>
+      <c r="DI2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="DJ2" s="28"/>
-      <c r="DK2" s="28"/>
-      <c r="DL2" s="28"/>
-      <c r="DM2" s="28"/>
-      <c r="DN2" s="28"/>
-      <c r="DO2" s="28"/>
-      <c r="DP2" s="28" t="s">
+      <c r="DJ2" s="25"/>
+      <c r="DK2" s="25"/>
+      <c r="DL2" s="25"/>
+      <c r="DM2" s="25"/>
+      <c r="DN2" s="25"/>
+      <c r="DO2" s="25"/>
+      <c r="DP2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="DQ2" s="28"/>
-      <c r="DR2" s="28"/>
-      <c r="DS2" s="28"/>
-      <c r="DT2" s="28"/>
-      <c r="DU2" s="28"/>
-      <c r="DV2" s="28"/>
-      <c r="DW2" s="28" t="s">
+      <c r="DQ2" s="25"/>
+      <c r="DR2" s="25"/>
+      <c r="DS2" s="25"/>
+      <c r="DT2" s="25"/>
+      <c r="DU2" s="25"/>
+      <c r="DV2" s="25"/>
+      <c r="DW2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="DX2" s="28"/>
-      <c r="DY2" s="28"/>
-      <c r="DZ2" s="28"/>
-      <c r="EA2" s="28"/>
-      <c r="EB2" s="28"/>
-      <c r="EC2" s="28"/>
-      <c r="ED2" s="28" t="s">
+      <c r="DX2" s="25"/>
+      <c r="DY2" s="25"/>
+      <c r="DZ2" s="25"/>
+      <c r="EA2" s="25"/>
+      <c r="EB2" s="25"/>
+      <c r="EC2" s="25"/>
+      <c r="ED2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="EE2" s="28"/>
-      <c r="EF2" s="28"/>
-      <c r="EG2" s="28"/>
-      <c r="EH2" s="28"/>
-      <c r="EI2" s="28"/>
-      <c r="EJ2" s="28"/>
-      <c r="EK2" s="28" t="s">
+      <c r="EE2" s="25"/>
+      <c r="EF2" s="25"/>
+      <c r="EG2" s="25"/>
+      <c r="EH2" s="25"/>
+      <c r="EI2" s="25"/>
+      <c r="EJ2" s="25"/>
+      <c r="EK2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="EL2" s="28"/>
-      <c r="EM2" s="28"/>
-      <c r="EN2" s="28"/>
-      <c r="EO2" s="28"/>
-      <c r="EP2" s="28"/>
-      <c r="EQ2" s="28"/>
-      <c r="ER2" s="28" t="s">
+      <c r="EL2" s="25"/>
+      <c r="EM2" s="25"/>
+      <c r="EN2" s="25"/>
+      <c r="EO2" s="25"/>
+      <c r="EP2" s="25"/>
+      <c r="EQ2" s="25"/>
+      <c r="ER2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="ES2" s="28"/>
-      <c r="ET2" s="28"/>
-      <c r="EU2" s="28"/>
-      <c r="EV2" s="28"/>
-      <c r="EW2" s="28"/>
-      <c r="EX2" s="28"/>
-      <c r="EY2" s="28" t="s">
+      <c r="ES2" s="25"/>
+      <c r="ET2" s="25"/>
+      <c r="EU2" s="25"/>
+      <c r="EV2" s="25"/>
+      <c r="EW2" s="25"/>
+      <c r="EX2" s="25"/>
+      <c r="EY2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="EZ2" s="28"/>
-      <c r="FA2" s="28"/>
-      <c r="FB2" s="28"/>
-      <c r="FC2" s="28"/>
-      <c r="FD2" s="28"/>
-      <c r="FE2" s="28"/>
-      <c r="FF2" s="28" t="s">
+      <c r="EZ2" s="25"/>
+      <c r="FA2" s="25"/>
+      <c r="FB2" s="25"/>
+      <c r="FC2" s="25"/>
+      <c r="FD2" s="25"/>
+      <c r="FE2" s="25"/>
+      <c r="FF2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="FG2" s="28"/>
-      <c r="FH2" s="28"/>
-      <c r="FI2" s="28"/>
-      <c r="FJ2" s="28"/>
-      <c r="FK2" s="28"/>
-      <c r="FL2" s="28"/>
-      <c r="FM2" s="28" t="s">
+      <c r="FG2" s="25"/>
+      <c r="FH2" s="25"/>
+      <c r="FI2" s="25"/>
+      <c r="FJ2" s="25"/>
+      <c r="FK2" s="25"/>
+      <c r="FL2" s="25"/>
+      <c r="FM2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="FN2" s="28"/>
-      <c r="FO2" s="28"/>
-      <c r="FP2" s="28"/>
-      <c r="FQ2" s="28"/>
-      <c r="FR2" s="28"/>
-      <c r="FS2" s="28"/>
-      <c r="FT2" s="28" t="s">
+      <c r="FN2" s="25"/>
+      <c r="FO2" s="25"/>
+      <c r="FP2" s="25"/>
+      <c r="FQ2" s="25"/>
+      <c r="FR2" s="25"/>
+      <c r="FS2" s="25"/>
+      <c r="FT2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="FU2" s="28"/>
-      <c r="FV2" s="28"/>
-      <c r="FW2" s="28"/>
-      <c r="FX2" s="28"/>
-      <c r="FY2" s="28"/>
-      <c r="FZ2" s="28"/>
-      <c r="GA2" s="28" t="s">
+      <c r="FU2" s="25"/>
+      <c r="FV2" s="25"/>
+      <c r="FW2" s="25"/>
+      <c r="FX2" s="25"/>
+      <c r="FY2" s="25"/>
+      <c r="FZ2" s="25"/>
+      <c r="GA2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="GB2" s="28"/>
-      <c r="GC2" s="28"/>
-      <c r="GD2" s="28"/>
-      <c r="GE2" s="28"/>
-      <c r="GF2" s="28"/>
-      <c r="GG2" s="28"/>
-      <c r="GH2" s="28" t="s">
+      <c r="GB2" s="25"/>
+      <c r="GC2" s="25"/>
+      <c r="GD2" s="25"/>
+      <c r="GE2" s="25"/>
+      <c r="GF2" s="25"/>
+      <c r="GG2" s="25"/>
+      <c r="GH2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="GI2" s="28"/>
-      <c r="GJ2" s="28"/>
-      <c r="GK2" s="28"/>
-      <c r="GL2" s="28"/>
-      <c r="GM2" s="28"/>
-      <c r="GN2" s="28"/>
-      <c r="GO2" s="28" t="s">
+      <c r="GI2" s="25"/>
+      <c r="GJ2" s="25"/>
+      <c r="GK2" s="25"/>
+      <c r="GL2" s="25"/>
+      <c r="GM2" s="25"/>
+      <c r="GN2" s="25"/>
+      <c r="GO2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="GP2" s="28"/>
-      <c r="GQ2" s="28"/>
-      <c r="GR2" s="28"/>
-      <c r="GS2" s="28"/>
-      <c r="GT2" s="28"/>
-      <c r="GU2" s="28"/>
-      <c r="GV2" s="28" t="s">
+      <c r="GP2" s="25"/>
+      <c r="GQ2" s="25"/>
+      <c r="GR2" s="25"/>
+      <c r="GS2" s="25"/>
+      <c r="GT2" s="25"/>
+      <c r="GU2" s="25"/>
+      <c r="GV2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="GW2" s="28"/>
-      <c r="GX2" s="28"/>
-      <c r="GY2" s="28"/>
-      <c r="GZ2" s="28"/>
-      <c r="HA2" s="28"/>
-      <c r="HB2" s="28"/>
-      <c r="HC2" s="28" t="s">
+      <c r="GW2" s="25"/>
+      <c r="GX2" s="25"/>
+      <c r="GY2" s="25"/>
+      <c r="GZ2" s="25"/>
+      <c r="HA2" s="25"/>
+      <c r="HB2" s="25"/>
+      <c r="HC2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="HD2" s="28"/>
-      <c r="HE2" s="28"/>
-      <c r="HF2" s="28"/>
-      <c r="HG2" s="28"/>
-      <c r="HH2" s="28"/>
-      <c r="HI2" s="28"/>
-      <c r="HJ2" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="HK2" s="28"/>
-      <c r="HL2" s="28"/>
-      <c r="HM2" s="28"/>
-      <c r="HN2" s="28"/>
-      <c r="HO2" s="28"/>
-      <c r="HP2" s="28"/>
-      <c r="HQ2" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="HR2" s="28"/>
-      <c r="HS2" s="28"/>
-      <c r="HT2" s="28"/>
-      <c r="HU2" s="28"/>
-      <c r="HV2" s="28"/>
-      <c r="HW2" s="28"/>
-    </row>
-    <row r="3" spans="1:231" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="HD2" s="25"/>
+      <c r="HE2" s="25"/>
+      <c r="HF2" s="25"/>
+      <c r="HG2" s="25"/>
+      <c r="HH2" s="25"/>
+      <c r="HI2" s="25"/>
+    </row>
+    <row r="3" spans="1:217" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" s="15"/>
       <c r="C3" s="3">
@@ -1975,20 +1986,8 @@
       <c r="HI3" s="4">
         <v>3</v>
       </c>
-      <c r="HJ3" s="3"/>
-      <c r="HK3" s="3"/>
-      <c r="HL3" s="3"/>
-      <c r="HM3" s="3"/>
-      <c r="HN3" s="3"/>
-      <c r="HO3" s="3"/>
-      <c r="HP3" s="3"/>
-      <c r="HQ3" s="3"/>
-      <c r="HR3" s="3"/>
-      <c r="HS3" s="3"/>
-      <c r="HT3" s="3"/>
-      <c r="HU3" s="3"/>
-    </row>
-    <row r="4" spans="1:231" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:217" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="16"/>
       <c r="C4" s="7"/>
@@ -2094,125 +2093,125 @@
       <c r="CY4" s="7"/>
       <c r="CZ4" s="7"/>
       <c r="DA4" s="7"/>
-      <c r="DB4" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="DC4" s="25"/>
-      <c r="DD4" s="25"/>
-      <c r="DE4" s="25"/>
-      <c r="DF4" s="25"/>
-      <c r="DG4" s="25"/>
-      <c r="DH4" s="25"/>
-      <c r="DI4" s="25"/>
-      <c r="DJ4" s="25"/>
-      <c r="DK4" s="25"/>
-      <c r="DL4" s="25"/>
-      <c r="DM4" s="25"/>
+      <c r="DB4" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="DC4" s="24"/>
+      <c r="DD4" s="24"/>
+      <c r="DE4" s="24"/>
+      <c r="DF4" s="24"/>
+      <c r="DG4" s="24"/>
+      <c r="DH4" s="24"/>
+      <c r="DI4" s="24"/>
+      <c r="DJ4" s="24"/>
+      <c r="DK4" s="24"/>
+      <c r="DL4" s="24"/>
+      <c r="DM4" s="24"/>
       <c r="DN4" s="23"/>
       <c r="DO4" s="23"/>
-      <c r="DP4" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="DQ4" s="25"/>
-      <c r="DR4" s="25"/>
-      <c r="DS4" s="25"/>
-      <c r="DT4" s="25"/>
-      <c r="DU4" s="25"/>
-      <c r="DV4" s="25"/>
-      <c r="DW4" s="25"/>
-      <c r="DX4" s="25"/>
-      <c r="DY4" s="25"/>
-      <c r="DZ4" s="25"/>
-      <c r="EA4" s="25"/>
+      <c r="DP4" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="DQ4" s="24"/>
+      <c r="DR4" s="24"/>
+      <c r="DS4" s="24"/>
+      <c r="DT4" s="24"/>
+      <c r="DU4" s="24"/>
+      <c r="DV4" s="24"/>
+      <c r="DW4" s="24"/>
+      <c r="DX4" s="24"/>
+      <c r="DY4" s="24"/>
+      <c r="DZ4" s="24"/>
+      <c r="EA4" s="24"/>
       <c r="EB4" s="23"/>
       <c r="EC4" s="23"/>
-      <c r="ED4" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="EE4" s="25"/>
-      <c r="EF4" s="25"/>
-      <c r="EG4" s="25"/>
-      <c r="EH4" s="25"/>
-      <c r="EI4" s="25"/>
-      <c r="EJ4" s="25"/>
-      <c r="EK4" s="25"/>
-      <c r="EL4" s="25"/>
-      <c r="EM4" s="25"/>
-      <c r="EN4" s="25"/>
-      <c r="EO4" s="25"/>
+      <c r="ED4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="EE4" s="24"/>
+      <c r="EF4" s="24"/>
+      <c r="EG4" s="24"/>
+      <c r="EH4" s="24"/>
+      <c r="EI4" s="24"/>
+      <c r="EJ4" s="24"/>
+      <c r="EK4" s="24"/>
+      <c r="EL4" s="24"/>
+      <c r="EM4" s="24"/>
+      <c r="EN4" s="24"/>
+      <c r="EO4" s="24"/>
       <c r="EP4" s="23"/>
       <c r="EQ4" s="23"/>
-      <c r="ER4" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="ES4" s="25"/>
-      <c r="ET4" s="25"/>
-      <c r="EU4" s="25"/>
-      <c r="EV4" s="25"/>
-      <c r="EW4" s="25"/>
-      <c r="EX4" s="25"/>
-      <c r="EY4" s="25"/>
-      <c r="EZ4" s="25"/>
-      <c r="FA4" s="25"/>
-      <c r="FB4" s="25"/>
-      <c r="FC4" s="25"/>
+      <c r="ER4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="ES4" s="24"/>
+      <c r="ET4" s="24"/>
+      <c r="EU4" s="24"/>
+      <c r="EV4" s="24"/>
+      <c r="EW4" s="24"/>
+      <c r="EX4" s="24"/>
+      <c r="EY4" s="24"/>
+      <c r="EZ4" s="24"/>
+      <c r="FA4" s="24"/>
+      <c r="FB4" s="24"/>
+      <c r="FC4" s="24"/>
       <c r="FD4" s="23"/>
       <c r="FE4" s="23"/>
-      <c r="FF4" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="FG4" s="25"/>
-      <c r="FH4" s="25"/>
-      <c r="FI4" s="25"/>
-      <c r="FJ4" s="25"/>
-      <c r="FK4" s="25"/>
-      <c r="FL4" s="25"/>
-      <c r="FM4" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="FN4" s="25"/>
-      <c r="FO4" s="25"/>
-      <c r="FP4" s="25"/>
-      <c r="FQ4" s="25"/>
-      <c r="FR4" s="25"/>
-      <c r="FS4" s="25"/>
-      <c r="FT4" s="25"/>
-      <c r="FU4" s="25"/>
-      <c r="FV4" s="25"/>
-      <c r="FW4" s="25"/>
-      <c r="FX4" s="25"/>
+      <c r="FF4" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="FG4" s="24"/>
+      <c r="FH4" s="24"/>
+      <c r="FI4" s="24"/>
+      <c r="FJ4" s="24"/>
+      <c r="FK4" s="24"/>
+      <c r="FL4" s="24"/>
+      <c r="FM4" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="FN4" s="24"/>
+      <c r="FO4" s="24"/>
+      <c r="FP4" s="24"/>
+      <c r="FQ4" s="24"/>
+      <c r="FR4" s="24"/>
+      <c r="FS4" s="24"/>
+      <c r="FT4" s="24"/>
+      <c r="FU4" s="24"/>
+      <c r="FV4" s="24"/>
+      <c r="FW4" s="24"/>
+      <c r="FX4" s="24"/>
       <c r="FY4" s="7"/>
       <c r="FZ4" s="7"/>
-      <c r="GA4" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="GB4" s="25"/>
-      <c r="GC4" s="25"/>
-      <c r="GD4" s="25"/>
-      <c r="GE4" s="25"/>
-      <c r="GF4" s="25"/>
-      <c r="GG4" s="25"/>
-      <c r="GH4" s="25"/>
-      <c r="GI4" s="25"/>
-      <c r="GJ4" s="25"/>
-      <c r="GK4" s="25"/>
-      <c r="GL4" s="25"/>
+      <c r="GA4" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="GB4" s="24"/>
+      <c r="GC4" s="24"/>
+      <c r="GD4" s="24"/>
+      <c r="GE4" s="24"/>
+      <c r="GF4" s="24"/>
+      <c r="GG4" s="24"/>
+      <c r="GH4" s="24"/>
+      <c r="GI4" s="24"/>
+      <c r="GJ4" s="24"/>
+      <c r="GK4" s="24"/>
+      <c r="GL4" s="24"/>
       <c r="GM4" s="7"/>
       <c r="GN4" s="7"/>
-      <c r="GO4" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="GP4" s="25"/>
-      <c r="GQ4" s="25"/>
-      <c r="GR4" s="25"/>
-      <c r="GS4" s="25"/>
-      <c r="GT4" s="25"/>
-      <c r="GU4" s="25"/>
-      <c r="GV4" s="25"/>
-      <c r="GW4" s="25"/>
-      <c r="GX4" s="25"/>
-      <c r="GY4" s="25"/>
-      <c r="GZ4" s="25"/>
+      <c r="GO4" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="GP4" s="24"/>
+      <c r="GQ4" s="24"/>
+      <c r="GR4" s="24"/>
+      <c r="GS4" s="24"/>
+      <c r="GT4" s="24"/>
+      <c r="GU4" s="24"/>
+      <c r="GV4" s="24"/>
+      <c r="GW4" s="24"/>
+      <c r="GX4" s="24"/>
+      <c r="GY4" s="24"/>
+      <c r="GZ4" s="24"/>
       <c r="HA4" s="7"/>
       <c r="HB4" s="7"/>
       <c r="HC4" s="7"/>
@@ -2223,132 +2222,131 @@
       <c r="HH4" s="7"/>
       <c r="HI4" s="7"/>
     </row>
-    <row r="5" spans="1:231" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:217" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:231" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:217" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="14" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="GZ6" s="22"/>
     </row>
-    <row r="7" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:217" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="FI7" s="19"/>
     </row>
-    <row r="8" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:217" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="CW8" s="18"/>
-      <c r="CX8" s="18"/>
-      <c r="CY8" s="18"/>
-      <c r="CZ8" s="18"/>
-      <c r="DA8" s="18"/>
-      <c r="DB8" s="18"/>
-      <c r="DC8" s="18"/>
-      <c r="DD8" s="18"/>
-      <c r="DE8" s="18"/>
-      <c r="DF8" s="18"/>
-      <c r="DG8" s="18"/>
-      <c r="DH8" s="18"/>
-      <c r="DI8" s="18"/>
-      <c r="DJ8" s="18"/>
-      <c r="DK8" s="18"/>
-      <c r="DL8" s="18"/>
-      <c r="DM8" s="18"/>
-      <c r="DN8" s="18"/>
-      <c r="DO8" s="18"/>
-      <c r="DP8" s="18"/>
-      <c r="DQ8" s="18"/>
-      <c r="DR8" s="18"/>
-      <c r="DS8" s="18"/>
-      <c r="DT8" s="18"/>
-      <c r="DU8" s="18"/>
-      <c r="DV8" s="18"/>
-      <c r="DW8" s="18"/>
-      <c r="DX8" s="18"/>
-      <c r="DY8" s="18"/>
-      <c r="DZ8" s="18"/>
-      <c r="EA8" s="18"/>
-      <c r="EB8" s="18"/>
-      <c r="EC8" s="18"/>
-      <c r="ED8" s="18"/>
-      <c r="EE8" s="18"/>
-      <c r="EF8" s="18"/>
-      <c r="EG8" s="18"/>
-      <c r="EH8" s="18"/>
-      <c r="EI8" s="18"/>
-      <c r="EJ8" s="18"/>
-      <c r="EK8" s="18"/>
-      <c r="EL8" s="18"/>
-      <c r="EM8" s="18"/>
-      <c r="EN8" s="18"/>
-      <c r="EO8" s="18"/>
-      <c r="EP8" s="18"/>
-      <c r="EQ8" s="18"/>
-      <c r="ER8" s="18"/>
-      <c r="ES8" s="18"/>
-      <c r="ET8" s="18"/>
-      <c r="EU8" s="18"/>
-      <c r="EV8" s="18"/>
-      <c r="EW8" s="18"/>
-      <c r="EX8" s="18"/>
-      <c r="EY8" s="18"/>
-      <c r="EZ8" s="18"/>
-      <c r="FA8" s="18"/>
-      <c r="FB8" s="18"/>
-      <c r="FC8" s="18"/>
-      <c r="FD8" s="18"/>
-      <c r="FE8" s="18"/>
-      <c r="FF8" s="18"/>
-      <c r="FG8" s="18"/>
-      <c r="FH8" s="18"/>
-      <c r="FI8" s="18"/>
-    </row>
-    <row r="9" spans="1:231" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="CW8" s="28"/>
+      <c r="CX8" s="28"/>
+      <c r="CY8" s="28"/>
+      <c r="CZ8" s="28"/>
+      <c r="DA8" s="28"/>
+      <c r="DB8" s="28"/>
+      <c r="DC8" s="28"/>
+      <c r="DD8" s="28"/>
+      <c r="DE8" s="28"/>
+      <c r="DF8" s="28"/>
+      <c r="DG8" s="28"/>
+      <c r="DH8" s="28"/>
+      <c r="DI8" s="28"/>
+      <c r="DJ8" s="28"/>
+      <c r="DK8" s="28"/>
+      <c r="DL8" s="28"/>
+      <c r="DM8" s="28"/>
+      <c r="DN8" s="28"/>
+      <c r="DO8" s="28"/>
+      <c r="DP8" s="28"/>
+      <c r="DQ8" s="28"/>
+      <c r="DR8" s="28"/>
+      <c r="DS8" s="28"/>
+      <c r="DT8" s="28"/>
+      <c r="DU8" s="28"/>
+      <c r="DV8" s="28"/>
+      <c r="DW8" s="28"/>
+      <c r="DX8" s="28"/>
+      <c r="DY8" s="28"/>
+      <c r="DZ8" s="28"/>
+      <c r="EA8" s="28"/>
+      <c r="EB8" s="28"/>
+      <c r="EC8" s="28"/>
+      <c r="ED8" s="28"/>
+      <c r="EE8" s="28"/>
+      <c r="EF8" s="28"/>
+      <c r="EG8" s="28"/>
+      <c r="EH8" s="28"/>
+      <c r="EI8" s="28"/>
+      <c r="EJ8" s="28"/>
+      <c r="EK8" s="28"/>
+      <c r="EL8" s="28"/>
+      <c r="EM8" s="28"/>
+      <c r="EN8" s="28"/>
+      <c r="EO8" s="28"/>
+      <c r="EP8" s="28"/>
+      <c r="EQ8" s="28"/>
+      <c r="ER8" s="28"/>
+      <c r="ES8" s="28"/>
+      <c r="ET8" s="28"/>
+      <c r="EU8" s="28"/>
+      <c r="EV8" s="28"/>
+      <c r="EW8" s="28"/>
+      <c r="EX8" s="28"/>
+      <c r="EY8" s="28"/>
+      <c r="EZ8" s="28"/>
+      <c r="FA8" s="28"/>
+      <c r="FB8" s="28"/>
+      <c r="FC8" s="28"/>
+      <c r="FD8" s="28"/>
+      <c r="FE8" s="28"/>
+      <c r="FF8" s="28"/>
+      <c r="FG8" s="28"/>
+      <c r="FH8" s="28"/>
+      <c r="FI8" s="28"/>
+    </row>
+    <row r="9" spans="1:217" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="EY9" s="18"/>
-      <c r="EZ9" s="18"/>
-      <c r="FA9" s="18"/>
-      <c r="FB9" s="18"/>
-      <c r="FC9" s="18"/>
-      <c r="FD9" s="18"/>
-      <c r="FE9" s="18"/>
-      <c r="FF9" s="18"/>
-      <c r="FG9" s="18"/>
-      <c r="FH9" s="18"/>
-      <c r="FI9" s="18"/>
-    </row>
-    <row r="10" spans="1:231" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="EY9" s="28"/>
+      <c r="EZ9" s="28"/>
+      <c r="FA9" s="28"/>
+      <c r="FB9" s="28"/>
+      <c r="FC9" s="28"/>
+      <c r="FD9" s="28"/>
+      <c r="FE9" s="28"/>
+      <c r="FF9" s="28"/>
+      <c r="FG9" s="28"/>
+      <c r="FH9" s="28"/>
+      <c r="FI9" s="28"/>
+    </row>
+    <row r="10" spans="1:217" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="EY10" s="18"/>
-      <c r="EZ10" s="18"/>
-      <c r="FA10" s="18"/>
-      <c r="FB10" s="18"/>
-      <c r="FC10" s="18"/>
-      <c r="FD10" s="18"/>
-      <c r="FE10" s="18"/>
-      <c r="FF10" s="18"/>
-      <c r="FG10" s="18"/>
-      <c r="FH10" s="18"/>
-      <c r="FI10" s="18"/>
-    </row>
-    <row r="11" spans="1:231" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="GA10" s="18"/>
+      <c r="GB10" s="18"/>
+      <c r="GC10" s="18"/>
+      <c r="GD10" s="18"/>
+      <c r="GE10" s="18"/>
+      <c r="GH10" s="18"/>
+      <c r="GI10" s="18"/>
+      <c r="GJ10" s="18"/>
+      <c r="GK10" s="18"/>
+      <c r="GL10" s="18"/>
+    </row>
+    <row r="11" spans="1:217" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="FM11" s="18"/>
       <c r="FN11" s="18"/>
@@ -2360,20 +2358,10 @@
       <c r="FV11" s="18"/>
       <c r="FW11" s="18"/>
       <c r="FX11" s="18"/>
-      <c r="GA11" s="18"/>
-      <c r="GB11" s="18"/>
-      <c r="GC11" s="18"/>
-      <c r="GD11" s="18"/>
-      <c r="GE11" s="18"/>
-      <c r="GH11" s="18"/>
-      <c r="GI11" s="18"/>
-      <c r="GJ11" s="18"/>
-      <c r="GK11" s="18"/>
-      <c r="GL11" s="18"/>
-    </row>
-    <row r="12" spans="1:231" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:217" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="DW12" s="18"/>
       <c r="DX12" s="18"/>
@@ -2430,43 +2418,43 @@
       <c r="GX12" s="18"/>
       <c r="GY12" s="18"/>
     </row>
-    <row r="13" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:217" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="DP13" s="18"/>
-      <c r="DQ13" s="18"/>
-      <c r="DR13" s="18"/>
-      <c r="DS13" s="18"/>
-      <c r="DT13" s="18"/>
-      <c r="DW13" s="18"/>
-      <c r="DX13" s="18"/>
-      <c r="DY13" s="18"/>
-      <c r="DZ13" s="18"/>
-      <c r="EA13" s="18"/>
-      <c r="ED13" s="18"/>
-      <c r="EE13" s="18"/>
-      <c r="EF13" s="18"/>
-      <c r="EG13" s="18"/>
-      <c r="EH13" s="18"/>
-      <c r="EK13" s="18"/>
-      <c r="EL13" s="18"/>
-      <c r="EM13" s="18"/>
-      <c r="EN13" s="18"/>
-      <c r="EO13" s="18"/>
-      <c r="ER13" s="18"/>
-      <c r="ES13" s="18"/>
-      <c r="ET13" s="18"/>
-      <c r="EU13" s="18"/>
-      <c r="EV13" s="18"/>
-      <c r="EY13" s="18"/>
-      <c r="EZ13" s="18"/>
-      <c r="FA13" s="18"/>
-      <c r="FB13" s="18"/>
-      <c r="FC13" s="18"/>
+        <v>57</v>
+      </c>
+      <c r="DP13" s="29"/>
+      <c r="DQ13" s="29"/>
+      <c r="DR13" s="29"/>
+      <c r="DS13" s="29"/>
+      <c r="DT13" s="29"/>
+      <c r="DW13" s="29"/>
+      <c r="DX13" s="29"/>
+      <c r="DY13" s="29"/>
+      <c r="DZ13" s="29"/>
+      <c r="EA13" s="29"/>
+      <c r="ED13" s="29"/>
+      <c r="EE13" s="29"/>
+      <c r="EF13" s="29"/>
+      <c r="EG13" s="29"/>
+      <c r="EH13" s="29"/>
+      <c r="EK13" s="29"/>
+      <c r="EL13" s="29"/>
+      <c r="EM13" s="29"/>
+      <c r="EN13" s="29"/>
+      <c r="EO13" s="29"/>
+      <c r="ER13" s="29"/>
+      <c r="ES13" s="29"/>
+      <c r="ET13" s="29"/>
+      <c r="EU13" s="29"/>
+      <c r="EV13" s="29"/>
+      <c r="EY13" s="29"/>
+      <c r="EZ13" s="29"/>
+      <c r="FA13" s="29"/>
+      <c r="FB13" s="29"/>
+      <c r="FC13" s="29"/>
       <c r="FM13" s="18"/>
       <c r="FN13" s="18"/>
       <c r="FO13" s="18"/>
@@ -2497,265 +2485,318 @@
       <c r="GX13" s="18"/>
       <c r="GY13" s="18"/>
     </row>
-    <row r="14" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:217" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="ER14" s="18"/>
-      <c r="ES14" s="18"/>
-      <c r="ET14" s="18"/>
-      <c r="EU14" s="18"/>
-      <c r="EV14" s="18"/>
-      <c r="EY14" s="18"/>
-      <c r="EZ14" s="18"/>
-      <c r="FA14" s="18"/>
-      <c r="FB14" s="18"/>
-      <c r="FC14" s="18"/>
-    </row>
-    <row r="15" spans="1:231" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:217" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="ED15" s="18"/>
-      <c r="EE15" s="18"/>
-      <c r="EF15" s="18"/>
-      <c r="EG15" s="18"/>
-      <c r="EH15" s="18"/>
-      <c r="EK15" s="18"/>
-      <c r="EL15" s="18"/>
-      <c r="EM15" s="18"/>
-      <c r="EN15" s="18"/>
-      <c r="EO15" s="18"/>
-    </row>
-    <row r="16" spans="1:231" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:217" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="DP16" s="18"/>
-      <c r="DQ16" s="18"/>
-      <c r="DR16" s="18"/>
-      <c r="DS16" s="18"/>
-      <c r="DT16" s="18"/>
-      <c r="DW16" s="18"/>
-      <c r="DX16" s="18"/>
-      <c r="DY16" s="18"/>
-      <c r="DZ16" s="18"/>
-      <c r="EA16" s="18"/>
-    </row>
-    <row r="17" spans="1:128" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:208" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="DX17" s="24"/>
-    </row>
-    <row r="18" spans="1:128" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:208" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:208" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="GO19" s="18"/>
+      <c r="GP19" s="18"/>
+      <c r="GQ19" s="18"/>
+      <c r="GR19" s="18"/>
+      <c r="GS19" s="18"/>
+      <c r="GV19" s="18"/>
+      <c r="GW19" s="18"/>
+      <c r="GX19" s="18"/>
+      <c r="GY19" s="18"/>
+      <c r="GZ19" s="18"/>
+    </row>
+    <row r="20" spans="1:208" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="GA20" s="18"/>
+      <c r="GB20" s="18"/>
+      <c r="GC20" s="18"/>
+      <c r="GD20" s="18"/>
+      <c r="GE20" s="18"/>
+      <c r="GH20" s="18"/>
+      <c r="GI20" s="18"/>
+      <c r="GJ20" s="18"/>
+      <c r="GK20" s="18"/>
+      <c r="GL20" s="18"/>
+    </row>
+    <row r="21" spans="1:208" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="DL18" s="18"/>
-    </row>
-    <row r="19" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="DF19" s="18"/>
-      <c r="DI19" s="18"/>
-      <c r="DJ19" s="18"/>
-      <c r="DK19" s="18"/>
-    </row>
-    <row r="20" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="DF20" s="18"/>
-      <c r="DI20" s="18"/>
-      <c r="DJ20" s="18"/>
-      <c r="DK20" s="18"/>
-    </row>
-    <row r="21" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="DF21" s="18"/>
-      <c r="DI21" s="18"/>
-    </row>
-    <row r="22" spans="1:128" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:208" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="DJ22" s="24"/>
-    </row>
-    <row r="23" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="FN22" s="18"/>
+      <c r="FO22" s="18"/>
+      <c r="FP22" s="18"/>
+      <c r="FQ22" s="18"/>
+      <c r="FR22" s="18"/>
+      <c r="FU22" s="18"/>
+      <c r="FV22" s="18"/>
+      <c r="FW22" s="18"/>
+      <c r="FX22" s="18"/>
+      <c r="FY22" s="18"/>
+    </row>
+    <row r="23" spans="1:208" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="CX23" s="18"/>
-      <c r="DB23" s="18"/>
-      <c r="DC23" s="18"/>
-      <c r="DD23" s="18"/>
-      <c r="DE23" s="18"/>
-    </row>
-    <row r="24" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="A24">
+        <v>66</v>
+      </c>
+      <c r="ER23" s="18"/>
+      <c r="ES23" s="18"/>
+      <c r="ET23" s="18"/>
+      <c r="EU23" s="18"/>
+      <c r="EV23" s="18"/>
+      <c r="EY23" s="18"/>
+      <c r="EZ23" s="18"/>
+      <c r="FA23" s="18"/>
+      <c r="FB23" s="18"/>
+      <c r="FC23" s="18"/>
+    </row>
+    <row r="24" spans="1:208" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="ED24" s="18"/>
+      <c r="EE24" s="18"/>
+      <c r="EF24" s="18"/>
+      <c r="EG24" s="18"/>
+      <c r="EH24" s="18"/>
+      <c r="EK24" s="18"/>
+      <c r="EL24" s="18"/>
+      <c r="EM24" s="18"/>
+      <c r="EN24" s="18"/>
+      <c r="EO24" s="18"/>
+    </row>
+    <row r="25" spans="1:208" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="DP25" s="18"/>
+      <c r="DQ25" s="18"/>
+      <c r="DR25" s="18"/>
+      <c r="DS25" s="18"/>
+      <c r="DT25" s="18"/>
+      <c r="DW25" s="18"/>
+      <c r="DX25" s="18"/>
+      <c r="DY25" s="18"/>
+      <c r="DZ25" s="18"/>
+      <c r="EA25" s="18"/>
+    </row>
+    <row r="26" spans="1:208" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="DL26" s="18"/>
+    </row>
+    <row r="27" spans="1:208" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="DF27" s="18"/>
+      <c r="DI27" s="18"/>
+      <c r="DJ27" s="18"/>
+      <c r="DK27" s="18"/>
+    </row>
+    <row r="28" spans="1:208" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="DF28" s="18"/>
+      <c r="DI28" s="18"/>
+      <c r="DJ28" s="18"/>
+      <c r="DK28" s="18"/>
+    </row>
+    <row r="29" spans="1:208" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="DF29" s="18"/>
+      <c r="DI29" s="18"/>
+    </row>
+    <row r="30" spans="1:208" x14ac:dyDescent="0.25">
+      <c r="B30" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="CX30" s="18"/>
+      <c r="DB30" s="18"/>
+      <c r="DC30" s="18"/>
+      <c r="DD30" s="18"/>
+      <c r="DE30" s="18"/>
+    </row>
+    <row r="31" spans="1:208" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="CX24" s="18"/>
-      <c r="DB24" s="18"/>
-      <c r="DC24" s="18"/>
-      <c r="DD24" s="18"/>
-      <c r="DE24" s="18"/>
-    </row>
-    <row r="25" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="B25" s="14" t="s">
+      <c r="B31" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="CX31" s="18"/>
+      <c r="DB31" s="18"/>
+      <c r="DC31" s="18"/>
+      <c r="DD31" s="18"/>
+      <c r="DE31" s="18"/>
+    </row>
+    <row r="32" spans="1:208" x14ac:dyDescent="0.25">
+      <c r="B32" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="CW32" s="18"/>
+      <c r="CX32" s="18"/>
+    </row>
+    <row r="33" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="CW25" s="18"/>
-      <c r="CX25" s="18"/>
-    </row>
-    <row r="26" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="B26" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="CW26" s="18"/>
-    </row>
-    <row r="27" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="CO27" s="19"/>
-    </row>
-    <row r="29" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="CW33" s="18"/>
+    </row>
+    <row r="34" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="B34" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="CO34" s="19"/>
+    </row>
+    <row r="36" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="37" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="38" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="39" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="40" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="41" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="42" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="43" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="44" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="45" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>8</v>
       </c>
-      <c r="B38" s="17"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="B45" s="17"/>
+    </row>
+    <row r="46" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="47" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="48" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>10</v>
       </c>
-      <c r="B44"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="B51"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>7</v>
       </c>
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="B52"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>4</v>
       </c>
-      <c r="B46"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="B53"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="DB4:DM4"/>
-    <mergeCell ref="DP4:EA4"/>
-    <mergeCell ref="ED4:EO4"/>
-    <mergeCell ref="ER4:FC4"/>
-    <mergeCell ref="FF4:FL4"/>
-    <mergeCell ref="HJ2:HP2"/>
-    <mergeCell ref="HQ2:HW2"/>
-    <mergeCell ref="FM2:FS2"/>
-    <mergeCell ref="FT2:FZ2"/>
-    <mergeCell ref="GA2:GG2"/>
-    <mergeCell ref="GH2:GN2"/>
-    <mergeCell ref="GO2:GU2"/>
-    <mergeCell ref="GV2:HB2"/>
-    <mergeCell ref="DP2:DV2"/>
-    <mergeCell ref="DW2:EC2"/>
-    <mergeCell ref="ED2:EJ2"/>
-    <mergeCell ref="EK2:EQ2"/>
-    <mergeCell ref="ER2:EX2"/>
-    <mergeCell ref="CG2:CM2"/>
-    <mergeCell ref="CN2:CT2"/>
-    <mergeCell ref="CU2:DA2"/>
-    <mergeCell ref="DB2:DH2"/>
-    <mergeCell ref="DI2:DO2"/>
+  <mergeCells count="46">
+    <mergeCell ref="FM4:FX4"/>
+    <mergeCell ref="GA4:GL4"/>
+    <mergeCell ref="GO4:GZ4"/>
+    <mergeCell ref="GB1:HE1"/>
+    <mergeCell ref="EX1:GA1"/>
+    <mergeCell ref="FF2:FL2"/>
+    <mergeCell ref="EY2:FE2"/>
+    <mergeCell ref="HC2:HI2"/>
+    <mergeCell ref="C1:AG1"/>
+    <mergeCell ref="AH1:BI1"/>
+    <mergeCell ref="BJ1:CN1"/>
+    <mergeCell ref="CO1:DR1"/>
+    <mergeCell ref="DS1:EW1"/>
     <mergeCell ref="BZ2:CF2"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:N2"/>
@@ -2768,19 +2809,27 @@
     <mergeCell ref="BE2:BK2"/>
     <mergeCell ref="BL2:BR2"/>
     <mergeCell ref="BS2:BY2"/>
-    <mergeCell ref="C1:AG1"/>
-    <mergeCell ref="AH1:BI1"/>
-    <mergeCell ref="BJ1:CN1"/>
-    <mergeCell ref="CO1:DR1"/>
-    <mergeCell ref="DS1:EW1"/>
-    <mergeCell ref="FM4:FX4"/>
-    <mergeCell ref="GA4:GL4"/>
-    <mergeCell ref="GO4:GZ4"/>
-    <mergeCell ref="GB1:HE1"/>
-    <mergeCell ref="EX1:GA1"/>
-    <mergeCell ref="FF2:FL2"/>
-    <mergeCell ref="EY2:FE2"/>
-    <mergeCell ref="HC2:HI2"/>
+    <mergeCell ref="CG2:CM2"/>
+    <mergeCell ref="CN2:CT2"/>
+    <mergeCell ref="CU2:DA2"/>
+    <mergeCell ref="DB2:DH2"/>
+    <mergeCell ref="DI2:DO2"/>
+    <mergeCell ref="DP2:DV2"/>
+    <mergeCell ref="DW2:EC2"/>
+    <mergeCell ref="ED2:EJ2"/>
+    <mergeCell ref="EK2:EQ2"/>
+    <mergeCell ref="ER2:EX2"/>
+    <mergeCell ref="FM2:FS2"/>
+    <mergeCell ref="FT2:FZ2"/>
+    <mergeCell ref="GA2:GG2"/>
+    <mergeCell ref="GH2:GN2"/>
+    <mergeCell ref="GO2:GU2"/>
+    <mergeCell ref="GV2:HB2"/>
+    <mergeCell ref="DB4:DM4"/>
+    <mergeCell ref="DP4:EA4"/>
+    <mergeCell ref="ED4:EO4"/>
+    <mergeCell ref="ER4:FC4"/>
+    <mergeCell ref="FF4:FL4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
